--- a/Results/tic tac toe-results.xlsx
+++ b/Results/tic tac toe-results.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>min_supp</t>
   </si>
   <si>
     <t>min_conf</t>
+  </si>
+  <si>
+    <t>clf_rules_count</t>
   </si>
   <si>
     <t>accuracy</t>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -414,13 +420,16 @@
         <v>20</v>
       </c>
       <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>98.95999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -431,13 +440,16 @@
         <v>20</v>
       </c>
       <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>98.95999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -448,13 +460,16 @@
         <v>20</v>
       </c>
       <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>98.95999999999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -465,13 +480,16 @@
         <v>20</v>
       </c>
       <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>98.95999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -482,13 +500,16 @@
         <v>20</v>
       </c>
       <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>98.95999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -499,13 +520,16 @@
         <v>20</v>
       </c>
       <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>98.95999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -516,13 +540,16 @@
         <v>20</v>
       </c>
       <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>98.95999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -533,13 +560,16 @@
         <v>20</v>
       </c>
       <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
         <v>81.93000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.62</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -550,13 +580,16 @@
         <v>20</v>
       </c>
       <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
         <v>73.59</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.53</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -567,13 +600,16 @@
         <v>20</v>
       </c>
       <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
         <v>74.84999999999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5.85</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -584,13 +620,16 @@
         <v>20</v>
       </c>
       <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
         <v>80.90000000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4.84</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -601,13 +640,16 @@
         <v>20</v>
       </c>
       <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>80.90000000000001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4.84</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -618,13 +660,16 @@
         <v>20</v>
       </c>
       <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
         <v>73.8</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3.95</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -635,13 +680,16 @@
         <v>20</v>
       </c>
       <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>68.06</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5.55</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -652,13 +700,16 @@
         <v>20</v>
       </c>
       <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>67.12</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5.63</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -669,13 +720,16 @@
         <v>20</v>
       </c>
       <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
         <v>69.09999999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.23</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -686,13 +740,16 @@
         <v>20</v>
       </c>
       <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
         <v>69.09999999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5.23</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -703,13 +760,16 @@
         <v>20</v>
       </c>
       <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
         <v>69.09999999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5.23</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -720,13 +780,16 @@
         <v>20</v>
       </c>
       <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
         <v>69.09999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5.09</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -737,13 +800,16 @@
         <v>20</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
         <v>69.09999999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5.09</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -754,13 +820,16 @@
         <v>20</v>
       </c>
       <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
         <v>69.09999999999999</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5.09</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -771,13 +840,16 @@
         <v>20</v>
       </c>
       <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
         <v>69.09999999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5.09</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -788,13 +860,16 @@
         <v>20</v>
       </c>
       <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
         <v>69.09999999999999</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5.09</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -805,13 +880,16 @@
         <v>20</v>
       </c>
       <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>69.09999999999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5.09</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -822,13 +900,16 @@
         <v>20</v>
       </c>
       <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
         <v>69.09999999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5.09</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -839,13 +920,16 @@
         <v>20</v>
       </c>
       <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
         <v>69.09999999999999</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>5.09</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -856,13 +940,16 @@
         <v>20</v>
       </c>
       <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
         <v>69.09999999999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -873,13 +960,16 @@
         <v>20</v>
       </c>
       <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <v>69.09999999999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5.09</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -890,13 +980,16 @@
         <v>20</v>
       </c>
       <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
         <v>69.09999999999999</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5.09</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -907,13 +1000,16 @@
         <v>20</v>
       </c>
       <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
         <v>68.69</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5.1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -924,13 +1020,16 @@
         <v>20</v>
       </c>
       <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
         <v>63.56</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>4.77</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -941,13 +1040,16 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F33">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -958,13 +1060,16 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F34">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -975,13 +1080,16 @@
         <v>20</v>
       </c>
       <c r="D35">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F35">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -992,13 +1100,16 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F36">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1009,13 +1120,16 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F37">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1026,13 +1140,16 @@
         <v>20</v>
       </c>
       <c r="D38">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F38">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1043,13 +1160,16 @@
         <v>20</v>
       </c>
       <c r="D39">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F39">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1060,13 +1180,16 @@
         <v>20</v>
       </c>
       <c r="D40">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F40">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1077,13 +1200,16 @@
         <v>20</v>
       </c>
       <c r="D41">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F41">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1094,13 +1220,16 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F42">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1111,13 +1240,16 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F43">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1128,13 +1260,16 @@
         <v>20</v>
       </c>
       <c r="D44">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F44">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1145,13 +1280,16 @@
         <v>20</v>
       </c>
       <c r="D45">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F45">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1162,13 +1300,16 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F46">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1179,13 +1320,16 @@
         <v>20</v>
       </c>
       <c r="D47">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F47">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1196,13 +1340,16 @@
         <v>20</v>
       </c>
       <c r="D48">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F48">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1213,13 +1360,16 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F49">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1230,13 +1380,16 @@
         <v>20</v>
       </c>
       <c r="D50">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F50">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1247,13 +1400,16 @@
         <v>20</v>
       </c>
       <c r="D51">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F51">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1264,13 +1420,16 @@
         <v>20</v>
       </c>
       <c r="D52">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F52">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1281,13 +1440,16 @@
         <v>20</v>
       </c>
       <c r="D53">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F53">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1298,13 +1460,16 @@
         <v>20</v>
       </c>
       <c r="D54">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F54">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1315,13 +1480,16 @@
         <v>20</v>
       </c>
       <c r="D55">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F55">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1332,13 +1500,16 @@
         <v>20</v>
       </c>
       <c r="D56">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F56">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1349,13 +1520,16 @@
         <v>20</v>
       </c>
       <c r="D57">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F57">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1366,13 +1540,16 @@
         <v>20</v>
       </c>
       <c r="D58">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F58">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1383,13 +1560,16 @@
         <v>20</v>
       </c>
       <c r="D59">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F59">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1400,13 +1580,16 @@
         <v>20</v>
       </c>
       <c r="D60">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F60">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1417,13 +1600,16 @@
         <v>20</v>
       </c>
       <c r="D61">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F61">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1434,13 +1620,16 @@
         <v>20</v>
       </c>
       <c r="D62">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F62">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1451,13 +1640,16 @@
         <v>20</v>
       </c>
       <c r="D63">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F63">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1468,13 +1660,16 @@
         <v>20</v>
       </c>
       <c r="D64">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F64">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1485,13 +1680,16 @@
         <v>20</v>
       </c>
       <c r="D65">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F65">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1502,13 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D66">
-        <v>55.4</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>14.63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>60.09</v>
+      </c>
+      <c r="F66">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1519,13 +1720,16 @@
         <v>40</v>
       </c>
       <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
         <v>98.95999999999999</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1536,13 +1740,16 @@
         <v>40</v>
       </c>
       <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
         <v>98.95999999999999</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1553,13 +1760,16 @@
         <v>40</v>
       </c>
       <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
         <v>98.95999999999999</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1570,13 +1780,16 @@
         <v>40</v>
       </c>
       <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
         <v>98.95999999999999</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1587,13 +1800,16 @@
         <v>40</v>
       </c>
       <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
         <v>98.95999999999999</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1604,13 +1820,16 @@
         <v>40</v>
       </c>
       <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72">
         <v>98.95999999999999</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1621,13 +1840,16 @@
         <v>40</v>
       </c>
       <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
         <v>98.95999999999999</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1638,13 +1860,16 @@
         <v>40</v>
       </c>
       <c r="D74">
+        <v>11</v>
+      </c>
+      <c r="E74">
         <v>81.93000000000001</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>5.62</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1655,13 +1880,16 @@
         <v>40</v>
       </c>
       <c r="D75">
+        <v>21</v>
+      </c>
+      <c r="E75">
         <v>73.59</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>5.53</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1672,13 +1900,16 @@
         <v>40</v>
       </c>
       <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="E76">
         <v>74.84999999999999</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>5.85</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1689,13 +1920,16 @@
         <v>40</v>
       </c>
       <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77">
         <v>80.90000000000001</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>4.84</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1706,13 +1940,16 @@
         <v>40</v>
       </c>
       <c r="D78">
+        <v>14</v>
+      </c>
+      <c r="E78">
         <v>80.90000000000001</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>4.84</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1723,13 +1960,16 @@
         <v>40</v>
       </c>
       <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
         <v>73.8</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>3.95</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1740,13 +1980,16 @@
         <v>40</v>
       </c>
       <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
         <v>68.06</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>5.55</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1757,13 +2000,16 @@
         <v>40</v>
       </c>
       <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
         <v>67.12</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>5.63</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1774,13 +2020,16 @@
         <v>40</v>
       </c>
       <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
         <v>69.09999999999999</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>5.23</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1791,13 +2040,16 @@
         <v>40</v>
       </c>
       <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
         <v>69.09999999999999</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>5.23</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1808,13 +2060,16 @@
         <v>40</v>
       </c>
       <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
         <v>69.09999999999999</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>5.23</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1825,13 +2080,16 @@
         <v>40</v>
       </c>
       <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
         <v>69.09999999999999</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>5.09</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1842,13 +2100,16 @@
         <v>40</v>
       </c>
       <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
         <v>69.09999999999999</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>5.09</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1859,13 +2120,16 @@
         <v>40</v>
       </c>
       <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
         <v>69.09999999999999</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>5.09</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1876,13 +2140,16 @@
         <v>40</v>
       </c>
       <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
         <v>69.09999999999999</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>5.09</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1893,13 +2160,16 @@
         <v>40</v>
       </c>
       <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
         <v>69.09999999999999</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>5.09</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1910,13 +2180,16 @@
         <v>40</v>
       </c>
       <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
         <v>69.09999999999999</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>5.09</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1927,13 +2200,16 @@
         <v>40</v>
       </c>
       <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
         <v>69.09999999999999</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>5.09</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1944,13 +2220,16 @@
         <v>40</v>
       </c>
       <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
         <v>69.09999999999999</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>5.09</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1961,13 +2240,16 @@
         <v>40</v>
       </c>
       <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
         <v>69.09999999999999</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>5.09</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1978,13 +2260,16 @@
         <v>40</v>
       </c>
       <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
         <v>69.09999999999999</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>5.09</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1995,13 +2280,16 @@
         <v>40</v>
       </c>
       <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
         <v>69.09999999999999</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>5.09</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2012,13 +2300,16 @@
         <v>40</v>
       </c>
       <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
         <v>68.69</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>5.1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2029,13 +2320,16 @@
         <v>40</v>
       </c>
       <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
         <v>63.56</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>4.77</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2046,13 +2340,16 @@
         <v>40</v>
       </c>
       <c r="D98">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F98">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2063,13 +2360,16 @@
         <v>40</v>
       </c>
       <c r="D99">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F99">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2080,13 +2380,16 @@
         <v>40</v>
       </c>
       <c r="D100">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F100">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2097,13 +2400,16 @@
         <v>40</v>
       </c>
       <c r="D101">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F101">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2114,13 +2420,16 @@
         <v>40</v>
       </c>
       <c r="D102">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F102">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2131,13 +2440,16 @@
         <v>40</v>
       </c>
       <c r="D103">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F103">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2148,13 +2460,16 @@
         <v>40</v>
       </c>
       <c r="D104">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F104">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2165,13 +2480,16 @@
         <v>40</v>
       </c>
       <c r="D105">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F105">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2182,13 +2500,16 @@
         <v>40</v>
       </c>
       <c r="D106">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F106">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2199,13 +2520,16 @@
         <v>40</v>
       </c>
       <c r="D107">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F107">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2216,13 +2540,16 @@
         <v>40</v>
       </c>
       <c r="D108">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F108">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2233,13 +2560,16 @@
         <v>40</v>
       </c>
       <c r="D109">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F109">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2250,13 +2580,16 @@
         <v>40</v>
       </c>
       <c r="D110">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F110">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2267,13 +2600,16 @@
         <v>40</v>
       </c>
       <c r="D111">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F111">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2284,13 +2620,16 @@
         <v>40</v>
       </c>
       <c r="D112">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F112">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2301,13 +2640,16 @@
         <v>40</v>
       </c>
       <c r="D113">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F113">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2318,13 +2660,16 @@
         <v>40</v>
       </c>
       <c r="D114">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F114">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2335,13 +2680,16 @@
         <v>40</v>
       </c>
       <c r="D115">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F115">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2352,13 +2700,16 @@
         <v>40</v>
       </c>
       <c r="D116">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F116">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2369,13 +2720,16 @@
         <v>40</v>
       </c>
       <c r="D117">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F117">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2386,13 +2740,16 @@
         <v>40</v>
       </c>
       <c r="D118">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F118">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2403,13 +2760,16 @@
         <v>40</v>
       </c>
       <c r="D119">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F119">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2420,13 +2780,16 @@
         <v>40</v>
       </c>
       <c r="D120">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F120">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2437,13 +2800,16 @@
         <v>40</v>
       </c>
       <c r="D121">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F121">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2454,13 +2820,16 @@
         <v>40</v>
       </c>
       <c r="D122">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F122">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2471,13 +2840,16 @@
         <v>40</v>
       </c>
       <c r="D123">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F123">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2488,13 +2860,16 @@
         <v>40</v>
       </c>
       <c r="D124">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F124">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2505,13 +2880,16 @@
         <v>40</v>
       </c>
       <c r="D125">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F125">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2522,13 +2900,16 @@
         <v>40</v>
       </c>
       <c r="D126">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F126">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2539,13 +2920,16 @@
         <v>40</v>
       </c>
       <c r="D127">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F127">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2556,13 +2940,16 @@
         <v>40</v>
       </c>
       <c r="D128">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F128">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2573,13 +2960,16 @@
         <v>40</v>
       </c>
       <c r="D129">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F129">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2590,13 +2980,16 @@
         <v>40</v>
       </c>
       <c r="D130">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F130">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2607,13 +3000,16 @@
         <v>40</v>
       </c>
       <c r="D131">
-        <v>55.4</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>14.63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>60.24</v>
+      </c>
+      <c r="F131">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2624,13 +3020,16 @@
         <v>60</v>
       </c>
       <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="E132">
         <v>98.95999999999999</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2641,13 +3040,16 @@
         <v>60</v>
       </c>
       <c r="D133">
+        <v>9</v>
+      </c>
+      <c r="E133">
         <v>98.95999999999999</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2658,13 +3060,16 @@
         <v>60</v>
       </c>
       <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134">
         <v>98.95999999999999</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2675,13 +3080,16 @@
         <v>60</v>
       </c>
       <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="E135">
         <v>98.95999999999999</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2692,13 +3100,16 @@
         <v>60</v>
       </c>
       <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="E136">
         <v>98.95999999999999</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2709,13 +3120,16 @@
         <v>60</v>
       </c>
       <c r="D137">
+        <v>9</v>
+      </c>
+      <c r="E137">
         <v>98.95999999999999</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2726,13 +3140,16 @@
         <v>60</v>
       </c>
       <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="E138">
         <v>98.95999999999999</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2743,13 +3160,16 @@
         <v>60</v>
       </c>
       <c r="D139">
+        <v>11</v>
+      </c>
+      <c r="E139">
         <v>81.93000000000001</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>5.62</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2760,13 +3180,16 @@
         <v>60</v>
       </c>
       <c r="D140">
+        <v>21</v>
+      </c>
+      <c r="E140">
         <v>73.59</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>5.53</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2777,13 +3200,16 @@
         <v>60</v>
       </c>
       <c r="D141">
+        <v>18</v>
+      </c>
+      <c r="E141">
         <v>74.84999999999999</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>5.85</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2794,13 +3220,16 @@
         <v>60</v>
       </c>
       <c r="D142">
+        <v>14</v>
+      </c>
+      <c r="E142">
         <v>80.90000000000001</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>4.84</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2811,13 +3240,16 @@
         <v>60</v>
       </c>
       <c r="D143">
+        <v>14</v>
+      </c>
+      <c r="E143">
         <v>80.90000000000001</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>4.84</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2828,13 +3260,16 @@
         <v>60</v>
       </c>
       <c r="D144">
+        <v>16</v>
+      </c>
+      <c r="E144">
         <v>73.8</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>3.95</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2845,13 +3280,16 @@
         <v>60</v>
       </c>
       <c r="D145">
+        <v>15</v>
+      </c>
+      <c r="E145">
         <v>68.06</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>5.55</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2862,13 +3300,16 @@
         <v>60</v>
       </c>
       <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
         <v>67.12</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>5.63</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2879,13 +3320,16 @@
         <v>60</v>
       </c>
       <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
         <v>69.09999999999999</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>5.23</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2896,13 +3340,16 @@
         <v>60</v>
       </c>
       <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
         <v>69.09999999999999</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>5.23</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2913,13 +3360,16 @@
         <v>60</v>
       </c>
       <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
         <v>69.09999999999999</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>5.23</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2930,13 +3380,16 @@
         <v>60</v>
       </c>
       <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
         <v>69.09999999999999</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>5.09</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2947,13 +3400,16 @@
         <v>60</v>
       </c>
       <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
         <v>69.09999999999999</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>5.09</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2964,13 +3420,16 @@
         <v>60</v>
       </c>
       <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
         <v>69.09999999999999</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>5.09</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2981,13 +3440,16 @@
         <v>60</v>
       </c>
       <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
         <v>69.09999999999999</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>5.09</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2998,13 +3460,16 @@
         <v>60</v>
       </c>
       <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
         <v>69.09999999999999</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>5.09</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3015,13 +3480,16 @@
         <v>60</v>
       </c>
       <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155">
         <v>69.09999999999999</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>5.09</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3032,13 +3500,16 @@
         <v>60</v>
       </c>
       <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156">
         <v>69.09999999999999</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>5.09</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3049,13 +3520,16 @@
         <v>60</v>
       </c>
       <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
         <v>69.09999999999999</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>5.09</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3066,13 +3540,16 @@
         <v>60</v>
       </c>
       <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
         <v>69.09999999999999</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>5.09</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3083,13 +3560,16 @@
         <v>60</v>
       </c>
       <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
         <v>69.09999999999999</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>5.09</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3100,13 +3580,16 @@
         <v>60</v>
       </c>
       <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
         <v>69.09999999999999</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>5.09</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3117,13 +3600,16 @@
         <v>60</v>
       </c>
       <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
         <v>68.69</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>5.1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3134,13 +3620,16 @@
         <v>60</v>
       </c>
       <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
         <v>63.56</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>4.77</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3151,13 +3640,16 @@
         <v>60</v>
       </c>
       <c r="D163">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F163">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3168,13 +3660,16 @@
         <v>60</v>
       </c>
       <c r="D164">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F164">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3185,13 +3680,16 @@
         <v>60</v>
       </c>
       <c r="D165">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F165">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3202,13 +3700,16 @@
         <v>60</v>
       </c>
       <c r="D166">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F166">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3219,13 +3720,16 @@
         <v>60</v>
       </c>
       <c r="D167">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F167">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3236,13 +3740,16 @@
         <v>60</v>
       </c>
       <c r="D168">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F168">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3253,13 +3760,16 @@
         <v>60</v>
       </c>
       <c r="D169">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F169">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3270,13 +3780,16 @@
         <v>60</v>
       </c>
       <c r="D170">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F170">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3287,13 +3800,16 @@
         <v>60</v>
       </c>
       <c r="D171">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F171">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3304,13 +3820,16 @@
         <v>60</v>
       </c>
       <c r="D172">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F172">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3321,13 +3840,16 @@
         <v>60</v>
       </c>
       <c r="D173">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F173">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3338,13 +3860,16 @@
         <v>60</v>
       </c>
       <c r="D174">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F174">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3355,13 +3880,16 @@
         <v>60</v>
       </c>
       <c r="D175">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F175">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3372,13 +3900,16 @@
         <v>60</v>
       </c>
       <c r="D176">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F176">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3389,13 +3920,16 @@
         <v>60</v>
       </c>
       <c r="D177">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F177">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3406,13 +3940,16 @@
         <v>60</v>
       </c>
       <c r="D178">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F178">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3423,13 +3960,16 @@
         <v>60</v>
       </c>
       <c r="D179">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F179">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3440,13 +3980,16 @@
         <v>60</v>
       </c>
       <c r="D180">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F180">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3457,13 +4000,16 @@
         <v>60</v>
       </c>
       <c r="D181">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F181">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3474,13 +4020,16 @@
         <v>60</v>
       </c>
       <c r="D182">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F182">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3491,13 +4040,16 @@
         <v>60</v>
       </c>
       <c r="D183">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F183">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3508,13 +4060,16 @@
         <v>60</v>
       </c>
       <c r="D184">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F184">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3525,13 +4080,16 @@
         <v>60</v>
       </c>
       <c r="D185">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F185">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3542,13 +4100,16 @@
         <v>60</v>
       </c>
       <c r="D186">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F186">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3559,13 +4120,16 @@
         <v>60</v>
       </c>
       <c r="D187">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F187">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3576,13 +4140,16 @@
         <v>60</v>
       </c>
       <c r="D188">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F188">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3593,13 +4160,16 @@
         <v>60</v>
       </c>
       <c r="D189">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F189">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3610,13 +4180,16 @@
         <v>60</v>
       </c>
       <c r="D190">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F190">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3627,13 +4200,16 @@
         <v>60</v>
       </c>
       <c r="D191">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F191">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3644,13 +4220,16 @@
         <v>60</v>
       </c>
       <c r="D192">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F192">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3661,13 +4240,16 @@
         <v>60</v>
       </c>
       <c r="D193">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F193">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3678,13 +4260,16 @@
         <v>60</v>
       </c>
       <c r="D194">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F194">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3695,13 +4280,16 @@
         <v>60</v>
       </c>
       <c r="D195">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F195">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3712,13 +4300,16 @@
         <v>60</v>
       </c>
       <c r="D196">
-        <v>60.24</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>60.09</v>
+      </c>
+      <c r="F196">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3729,13 +4320,16 @@
         <v>80</v>
       </c>
       <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
         <v>98.95999999999999</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3746,13 +4340,16 @@
         <v>80</v>
       </c>
       <c r="D198">
+        <v>9</v>
+      </c>
+      <c r="E198">
         <v>98.95999999999999</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3763,13 +4360,16 @@
         <v>80</v>
       </c>
       <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="E199">
         <v>98.95999999999999</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3780,13 +4380,16 @@
         <v>80</v>
       </c>
       <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
         <v>98.95999999999999</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3797,13 +4400,16 @@
         <v>80</v>
       </c>
       <c r="D201">
+        <v>9</v>
+      </c>
+      <c r="E201">
         <v>98.95999999999999</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3814,13 +4420,16 @@
         <v>80</v>
       </c>
       <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
         <v>98.95999999999999</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3831,13 +4440,16 @@
         <v>80</v>
       </c>
       <c r="D203">
+        <v>9</v>
+      </c>
+      <c r="E203">
         <v>98.95999999999999</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3848,13 +4460,16 @@
         <v>80</v>
       </c>
       <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204">
         <v>81.93000000000001</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>5.62</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3865,13 +4480,16 @@
         <v>80</v>
       </c>
       <c r="D205">
+        <v>13</v>
+      </c>
+      <c r="E205">
         <v>68.26000000000001</v>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>3.47</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3882,13 +4500,16 @@
         <v>80</v>
       </c>
       <c r="D206">
+        <v>12</v>
+      </c>
+      <c r="E206">
         <v>66.06999999999999</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>3.07</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3899,13 +4520,16 @@
         <v>80</v>
       </c>
       <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
         <v>65.03</v>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>5.32</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3916,13 +4540,16 @@
         <v>80</v>
       </c>
       <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
         <v>65.03</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>5.32</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3933,13 +4560,16 @@
         <v>80</v>
       </c>
       <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
         <v>65.03</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>5.32</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3950,13 +4580,16 @@
         <v>80</v>
       </c>
       <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
         <v>64.81999999999999</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>4.85</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3967,13 +4600,16 @@
         <v>80</v>
       </c>
       <c r="D211">
-        <v>64.3</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F211">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3984,13 +4620,16 @@
         <v>80</v>
       </c>
       <c r="D212">
-        <v>60.09</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>57.01</v>
+      </c>
+      <c r="F212">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4001,13 +4640,16 @@
         <v>80</v>
       </c>
       <c r="D213">
-        <v>53.84</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>15.17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>60.09</v>
+      </c>
+      <c r="F213">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4018,13 +4660,16 @@
         <v>80</v>
       </c>
       <c r="D214">
-        <v>64.3</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>56.03</v>
+      </c>
+      <c r="F214">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4035,13 +4680,16 @@
         <v>80</v>
       </c>
       <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
         <v>56.86</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>13.95</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4052,13 +4700,16 @@
         <v>80</v>
       </c>
       <c r="D216">
-        <v>57.01</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>13.87</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>56.03</v>
+      </c>
+      <c r="F216">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4069,13 +4720,16 @@
         <v>80</v>
       </c>
       <c r="D217">
-        <v>61.07</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>56.86</v>
+      </c>
+      <c r="F217">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4086,13 +4740,16 @@
         <v>80</v>
       </c>
       <c r="D218">
-        <v>61.07</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>57.01</v>
+      </c>
+      <c r="F218">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4103,13 +4760,16 @@
         <v>80</v>
       </c>
       <c r="D219">
-        <v>53.01</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>56.86</v>
+      </c>
+      <c r="F219">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4120,13 +4780,16 @@
         <v>80</v>
       </c>
       <c r="D220">
-        <v>53.99</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>15.13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>52.8</v>
+      </c>
+      <c r="F220">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4137,13 +4800,16 @@
         <v>80</v>
       </c>
       <c r="D221">
-        <v>52.8</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F221">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4154,13 +4820,16 @@
         <v>80</v>
       </c>
       <c r="D222">
-        <v>52.8</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>57.22</v>
+      </c>
+      <c r="F222">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4171,13 +4840,16 @@
         <v>80</v>
       </c>
       <c r="D223">
-        <v>53.84</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>15.17</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>56.86</v>
+      </c>
+      <c r="F223">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4188,13 +4860,16 @@
         <v>80</v>
       </c>
       <c r="D224">
-        <v>49.78</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>61.28</v>
+      </c>
+      <c r="F224">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4205,13 +4880,16 @@
         <v>80</v>
       </c>
       <c r="D225">
-        <v>49.78</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F225">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4222,13 +4900,16 @@
         <v>80</v>
       </c>
       <c r="D226">
-        <v>61.28</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>52.8</v>
+      </c>
+      <c r="F226">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4239,13 +4920,16 @@
         <v>80</v>
       </c>
       <c r="D227">
-        <v>56.86</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>64.3</v>
+      </c>
+      <c r="F227">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4256,13 +4940,16 @@
         <v>80</v>
       </c>
       <c r="D228">
-        <v>61.28</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>58.05</v>
+      </c>
+      <c r="F228">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4273,13 +4960,16 @@
         <v>80</v>
       </c>
       <c r="D229">
-        <v>56.03</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>14.36</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>52.8</v>
+      </c>
+      <c r="F229">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4290,13 +4980,16 @@
         <v>80</v>
       </c>
       <c r="D230">
-        <v>53.84</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>15.17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>61.07</v>
+      </c>
+      <c r="F230">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4307,13 +5000,16 @@
         <v>80</v>
       </c>
       <c r="D231">
-        <v>61.07</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>53.84</v>
+      </c>
+      <c r="F231">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4324,13 +5020,16 @@
         <v>80</v>
       </c>
       <c r="D232">
-        <v>53.84</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>15.17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>57.22</v>
+      </c>
+      <c r="F232">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4341,13 +5040,16 @@
         <v>80</v>
       </c>
       <c r="D233">
-        <v>60.09</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>53.99</v>
+      </c>
+      <c r="F233">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4358,13 +5060,16 @@
         <v>80</v>
       </c>
       <c r="D234">
-        <v>53.01</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>58.05</v>
+      </c>
+      <c r="F234">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4375,13 +5080,16 @@
         <v>80</v>
       </c>
       <c r="D235">
-        <v>52.2</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>15.55</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>41.42</v>
+      </c>
+      <c r="F235">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4392,13 +5100,16 @@
         <v>80</v>
       </c>
       <c r="D236">
-        <v>56.57</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>49.88</v>
+      </c>
+      <c r="F236">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4409,13 +5120,16 @@
         <v>80</v>
       </c>
       <c r="D237">
-        <v>53.68</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>15.22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>57.53</v>
+      </c>
+      <c r="F237">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4426,13 +5140,16 @@
         <v>80</v>
       </c>
       <c r="D238">
-        <v>42.99</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>14.39</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>51.99</v>
+      </c>
+      <c r="F238">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4443,13 +5160,16 @@
         <v>80</v>
       </c>
       <c r="D239">
-        <v>45.49</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>15.27</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>49.34</v>
+      </c>
+      <c r="F239">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4460,13 +5180,16 @@
         <v>80</v>
       </c>
       <c r="D240">
-        <v>48.01</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>47.3</v>
+      </c>
+      <c r="F240">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4477,13 +5200,16 @@
         <v>80</v>
       </c>
       <c r="D241">
-        <v>53.11</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>52.41</v>
+      </c>
+      <c r="F241">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4494,13 +5220,16 @@
         <v>80</v>
       </c>
       <c r="D242">
-        <v>47.05</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>51.07</v>
+      </c>
+      <c r="F242">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4511,13 +5240,16 @@
         <v>80</v>
       </c>
       <c r="D243">
-        <v>50.95</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>51.07</v>
+      </c>
+      <c r="F243">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4528,13 +5260,16 @@
         <v>80</v>
       </c>
       <c r="D244">
-        <v>47.51</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>49.7</v>
+      </c>
+      <c r="F244">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4545,13 +5280,16 @@
         <v>80</v>
       </c>
       <c r="D245">
-        <v>51.45</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>36.84</v>
+      </c>
+      <c r="F245">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4562,13 +5300,16 @@
         <v>80</v>
       </c>
       <c r="D246">
-        <v>51.45</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>52.93</v>
+      </c>
+      <c r="F246">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4579,13 +5320,16 @@
         <v>80</v>
       </c>
       <c r="D247">
-        <v>57.01</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>13.87</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>52.2</v>
+      </c>
+      <c r="F247">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4596,13 +5340,16 @@
         <v>80</v>
       </c>
       <c r="D248">
-        <v>50.61</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>43.74</v>
+      </c>
+      <c r="F248">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4613,13 +5360,16 @@
         <v>80</v>
       </c>
       <c r="D249">
-        <v>47.07</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>42.47</v>
+      </c>
+      <c r="F249">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4630,13 +5380,16 @@
         <v>80</v>
       </c>
       <c r="D250">
-        <v>48.66</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>46.24</v>
+      </c>
+      <c r="F250">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4647,13 +5400,16 @@
         <v>80</v>
       </c>
       <c r="D251">
-        <v>44.97</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>15.13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>44.65</v>
+      </c>
+      <c r="F251">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4664,13 +5420,16 @@
         <v>80</v>
       </c>
       <c r="D252">
-        <v>48.43</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>52.74</v>
+      </c>
+      <c r="F252">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4681,13 +5440,16 @@
         <v>80</v>
       </c>
       <c r="D253">
-        <v>41.22</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>60.09</v>
+      </c>
+      <c r="F253">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4698,13 +5460,16 @@
         <v>80</v>
       </c>
       <c r="D254">
-        <v>41.63</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>44.65</v>
+      </c>
+      <c r="F254">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4715,13 +5480,16 @@
         <v>80</v>
       </c>
       <c r="D255">
-        <v>56.07</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>14.34</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>43.53</v>
+      </c>
+      <c r="F255">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4732,13 +5500,16 @@
         <v>80</v>
       </c>
       <c r="D256">
-        <v>52.93</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>47.22</v>
+      </c>
+      <c r="F256">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4749,13 +5520,16 @@
         <v>80</v>
       </c>
       <c r="D257">
-        <v>51.07</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>50.45</v>
+      </c>
+      <c r="F257">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4766,13 +5540,16 @@
         <v>80</v>
       </c>
       <c r="D258">
-        <v>52.01</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>15.58</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>52.09</v>
+      </c>
+      <c r="F258">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4783,13 +5560,16 @@
         <v>80</v>
       </c>
       <c r="D259">
-        <v>44.78</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>15.07</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>47.74</v>
+      </c>
+      <c r="F259">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4800,13 +5580,16 @@
         <v>80</v>
       </c>
       <c r="D260">
-        <v>47.59</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>15.67</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>40.8</v>
+      </c>
+      <c r="F260">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4817,10 +5600,13 @@
         <v>80</v>
       </c>
       <c r="D261">
-        <v>45.09</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>15.16</v>
+        <v>59.2</v>
+      </c>
+      <c r="F261">
+        <v>12.44</v>
       </c>
     </row>
   </sheetData>
